--- a/spliced/struggle/2023-04-06_17-41-50/data_selected.xlsx
+++ b/spliced/struggle/2023-04-06_17-41-50/data_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1035,6 +1035,286 @@
         <v>0.5934556126594543</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0.9749262332916433</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1.300361778587099</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-6.267426431179062</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-0.4335615932941437</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.1406517177820205</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-0.8185594081878662</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>-3.844243764877326</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1.833226948976521</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-1.409952521324157</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.09498954564332961</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-0.7519751191139221</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-0.1093448773026466</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0.4797788858413697</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-0.523662269115448</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-1.702465817332268</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.1846340149641037</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-1.312596678733826</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.0687223374843597</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>1.155098915100098</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.092013478279114</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1.727226853370667</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.6478226184844971</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-0.9091202020645142</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-0.1838704347610473</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>-1.098365545272828</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-0.6193101108074199</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.1845241859555233</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-0.1064432710409164</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-0.09178250283002851</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.0652098655700683</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.8518145084381094</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-0.03355145454406605</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.7549576908350003</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-0.042302418500185</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.3572034537792206</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.1937969923019409</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0.405293345451355</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.8384262472391129</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.3231545425951481</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-0.2768746614456177</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.2338086664676666</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-0.1817324161529541</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0.2438197135925255</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.4860433936119046</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-0.09267929568886754</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.0734565481543541</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.1968513280153274</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.1055269688367843</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.07322704792022328</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.1344193816185026</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-0.148086081258953</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-0.1507309973239898</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-0.0175623763352632</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.08170322328805921</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0.4853796958923352</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.7483796477317809</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-0.1751452423632148</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-0.1734857261180877</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.0183259565383195</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.0250454749912023</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
